--- a/Schedule/CodeHackerスケジュール.xlsx
+++ b/Schedule/CodeHackerスケジュール.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42596\OneDrive\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Github Repository\CodeHacker\Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47063A56-863A-456B-80AA-7F59566989F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CE7172-2C3E-40FE-8D32-846C58AC3746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1886" yWindow="1886" windowWidth="24685" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeHacker概要欄" sheetId="1" r:id="rId1"/>
@@ -353,28 +353,40 @@
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -395,6 +407,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -410,40 +425,28 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -458,7 +461,7 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -471,9 +474,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K30:K31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15"/>
@@ -769,473 +769,463 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.15" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="14.6" thickBot="1"/>
     <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="27" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="28"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="14.6" thickBot="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" ht="14.15" customHeight="1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="41">
-        <v>45722</v>
-      </c>
-      <c r="H10" s="41">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="1">
         <v>45729</v>
       </c>
+      <c r="H10" s="1">
+        <v>45736</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="14.6" customHeight="1" thickBot="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="14.15" customHeight="1">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="41">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="1">
         <v>45715</v>
       </c>
-      <c r="H12" s="41">
-        <v>45721</v>
+      <c r="H12" s="1">
+        <v>45728</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.6" customHeight="1" thickBot="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="14.15" customHeight="1">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="41">
-        <v>45730</v>
-      </c>
-      <c r="H14" s="41">
-        <v>45735</v>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="1">
+        <v>45737</v>
+      </c>
+      <c r="H14" s="1">
+        <v>45742</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.6" customHeight="1" thickBot="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="14.15" customHeight="1">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="41">
-        <v>45736</v>
-      </c>
-      <c r="H16" s="41">
-        <v>45740</v>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="1">
+        <v>45743</v>
+      </c>
+      <c r="H16" s="1">
+        <v>45747</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.6" customHeight="1" thickBot="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" ht="14.15" customHeight="1">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="41">
-        <v>45741</v>
-      </c>
-      <c r="H18" s="41">
-        <v>45743</v>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="1">
+        <v>45748</v>
+      </c>
+      <c r="H18" s="1">
+        <v>45750</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.6" customHeight="1" thickBot="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="14.15" customHeight="1">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="41">
-        <v>45743</v>
-      </c>
-      <c r="H20" s="41">
-        <v>45747</v>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="1">
+        <v>45751</v>
+      </c>
+      <c r="H20" s="1">
+        <v>45753</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.6" customHeight="1" thickBot="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="14.15" customHeight="1">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="41">
-        <v>45748</v>
-      </c>
-      <c r="H22" s="41">
-        <v>45749</v>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="1">
+        <v>45754</v>
+      </c>
+      <c r="H22" s="1">
+        <v>45755</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.6" customHeight="1" thickBot="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="14.15" customHeight="1">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="41">
-        <v>45750</v>
-      </c>
-      <c r="H24" s="41">
-        <v>45754</v>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="1">
+        <v>45756</v>
+      </c>
+      <c r="H24" s="1">
+        <v>45760</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.6" customHeight="1" thickBot="1">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="27" spans="1:8" ht="14.6" thickBot="1"/>
     <row r="28" spans="1:8">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:8" ht="14.6" thickBot="1">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:8" ht="14.6" thickBot="1">
-      <c r="A31" s="24"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="26"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="14.6" thickBot="1">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="26"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="23"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" ht="14.6" thickBot="1">
-      <c r="A35" s="24"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="26"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" ht="14.6" thickBot="1">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="26"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="8"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="23"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" ht="14.6" thickBot="1">
-      <c r="A39" s="24"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="26"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="8"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="23"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" ht="14.6" thickBot="1">
-      <c r="A41" s="24"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="26"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="8"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="23"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" ht="14.6" thickBot="1">
-      <c r="A43" s="24"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="26"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="23"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6" ht="14.6" thickBot="1">
-      <c r="A45" s="24"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="26"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A22:F23"/>
+    <mergeCell ref="A4:C6"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="D4:F6"/>
+    <mergeCell ref="A8:F9"/>
+    <mergeCell ref="A10:F11"/>
     <mergeCell ref="A38:F39"/>
     <mergeCell ref="A40:F41"/>
     <mergeCell ref="A42:F43"/>
@@ -1252,12 +1242,22 @@
     <mergeCell ref="A16:F17"/>
     <mergeCell ref="A18:F19"/>
     <mergeCell ref="A20:F21"/>
-    <mergeCell ref="A22:F23"/>
-    <mergeCell ref="A4:C6"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="D4:F6"/>
-    <mergeCell ref="A8:F9"/>
-    <mergeCell ref="A10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G16:G17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1275,166 +1275,166 @@
   <sheetFormatPr defaultRowHeight="14.15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="14.6" thickBot="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="14.6" thickBot="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="14.6" thickBot="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="14.6" thickBot="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="14.6" thickBot="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="14.6" thickBot="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="14.6" thickBot="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="14.6" thickBot="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="14.6" thickBot="1">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1464,86 +1464,86 @@
   <sheetFormatPr defaultRowHeight="14.15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="str">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25" t="str">
         <f>CONCATENATE("制作期間：",TEXT(CodeHacker概要欄!G10,"mm/dd"),"~",TEXT(CodeHacker概要欄!H10,"mm/dd"))</f>
-        <v>制作期間：03/06~03/13</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+        <v>制作期間：03/13~03/20</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="14.6" thickBot="1"/>
     <row r="8" spans="1:6">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:6" ht="14.6" thickBot="1">
-      <c r="A10" s="38"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1568,59 +1568,59 @@
   <sheetFormatPr defaultRowHeight="14.15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="str">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25" t="str">
         <f>CONCATENATE("制作期間：",TEXT(CodeHacker概要欄!G12,"mm/dd"),"~",TEXT(CodeHacker概要欄!H12,"mm/dd"))</f>
-        <v>制作期間：02/27~03/05</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+        <v>制作期間：02/27~03/12</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1644,59 +1644,59 @@
   <sheetFormatPr defaultRowHeight="14.15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="str">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25" t="str">
         <f>CONCATENATE("制作期間：",TEXT(CodeHacker概要欄!G14,"mm/dd"),"~",TEXT(CodeHacker概要欄!H14,"mm/dd"))</f>
-        <v>制作期間：03/14~03/19</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+        <v>制作期間：03/21~03/26</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1720,59 +1720,59 @@
   <sheetFormatPr defaultRowHeight="14.15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="str">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25" t="str">
         <f>CONCATENATE("制作期間：",TEXT(CodeHacker概要欄!G16,"mm/dd"),"~",TEXT(CodeHacker概要欄!H16,"mm/dd"))</f>
-        <v>制作期間：03/20~03/24</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+        <v>制作期間：03/27~03/31</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1796,59 +1796,59 @@
   <sheetFormatPr defaultRowHeight="14.15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="str">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25" t="str">
         <f>CONCATENATE("制作期間：",TEXT(CodeHacker概要欄!G18,"mm/dd"),"~",TEXT(CodeHacker概要欄!H18,"mm/dd"))</f>
-        <v>制作期間：03/25~03/27</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+        <v>制作期間：04/01~04/03</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1872,59 +1872,59 @@
   <sheetFormatPr defaultRowHeight="14.15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="str">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25" t="str">
         <f>CONCATENATE("制作期間：",TEXT(CodeHacker概要欄!G20,"mm/dd"),"~",TEXT(CodeHacker概要欄!H20,"mm/dd"))</f>
-        <v>制作期間：03/27~03/31</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+        <v>制作期間：04/04~04/06</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1948,59 +1948,59 @@
   <sheetFormatPr defaultRowHeight="14.15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="str">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25" t="str">
         <f>CONCATENATE("制作期間：",TEXT(CodeHacker概要欄!G22,"mm/dd"),"~",TEXT(CodeHacker概要欄!H22,"mm/dd"))</f>
-        <v>制作期間：04/01~04/02</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+        <v>制作期間：04/07~04/08</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2024,59 +2024,59 @@
   <sheetFormatPr defaultRowHeight="14.15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="str">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25" t="str">
         <f>CONCATENATE("制作期間：",TEXT(CodeHacker概要欄!G24,"mm/dd"),"~",TEXT(CodeHacker概要欄!H24,"mm/dd"))</f>
-        <v>制作期間：04/03~04/07</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+        <v>制作期間：04/09~04/13</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
